--- a/Remises/Remise_Final/Plans_test_integration.xlsx
+++ b/Remises/Remise_Final/Plans_test_integration.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Égaliseur" sheetId="1" r:id="rId1"/>
+    <sheet name="Effets" sheetId="1" r:id="rId1"/>
     <sheet name="Communication" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
   <si>
     <t>Date:</t>
   </si>
@@ -79,15 +79,9 @@
     <t>Sinus de 700Hz, 1V</t>
   </si>
   <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
     <t>Entrée: sinus de 1kHz, 1V</t>
   </si>
   <si>
-    <t>Signal environ nul</t>
-  </si>
-  <si>
     <t>Filtre passe-bande (1kHz à 5kHz) (Deuxième canal):</t>
   </si>
   <si>
@@ -106,18 +100,6 @@
     <t>Sinus de 1kHz, 1V</t>
   </si>
   <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>Entrée: sinus de 6kHz, 1V</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>Entrée: sinus de 500Hz, 1V</t>
-  </si>
-  <si>
     <t>Filtre passe-haut 7kHz (Troisième canal):</t>
   </si>
   <si>
@@ -128,12 +110,6 @@
   </si>
   <si>
     <t>Sinus de 7kHz, 1V</t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>Entrée: un sinus de 6kHz, 1V</t>
   </si>
   <si>
     <t>Filtre passe-bas 700Hz et Gain ajustable (Premier canal):</t>
@@ -317,7 +293,61 @@
     <t>Appui sur un touche du clavier</t>
   </si>
   <si>
-    <t>La touche appuyé est reçu sur le PIC</t>
+    <t>La touche appuyé est reçue sur le PIC</t>
+  </si>
+  <si>
+    <t>Pitch Shifter:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun bruit est entendu entre les trames </t>
+  </si>
+  <si>
+    <t>Le signal a une fréquence deux fois plus grande</t>
+  </si>
+  <si>
+    <t>Entrée: Un signal de voix quelconque</t>
+  </si>
+  <si>
+    <t>Activation du pitch shifter avec le clavier</t>
+  </si>
+  <si>
+    <t>Le pitchshifter est activé</t>
+  </si>
+  <si>
+    <t>Sinus 700Hz, 1Vpp</t>
+  </si>
+  <si>
+    <t>Sinus de 1kHz, 1Vpp</t>
+  </si>
+  <si>
+    <t>Sinus de 5kHz, 1Vpp</t>
+  </si>
+  <si>
+    <t>Sinus de 7kHz, 1Vpp</t>
+  </si>
+  <si>
+    <t>18 Avril 2018</t>
+  </si>
+  <si>
+    <t>échec</t>
+  </si>
+  <si>
+    <t>Réussite</t>
+  </si>
+  <si>
+    <t>Signal grandement atténué</t>
+  </si>
+  <si>
+    <t>Signal amplifié</t>
+  </si>
+  <si>
+    <t>700 mVpp &lt;= sinon saturation</t>
+  </si>
+  <si>
+    <t>800mVpp &lt;= sinon saturation</t>
+  </si>
+  <si>
+    <t>Aucun changement</t>
   </si>
 </sst>
 </file>
@@ -341,13 +371,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -1014,15 +1050,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1035,10 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1053,21 +1206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,50 +1227,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1140,51 +1254,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,64 +1287,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1534,13 +1603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D22"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -1554,611 +1623,645 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="F2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="50"/>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="52"/>
+      <c r="H3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="18" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="B13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
-        <v>1.3</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29" t="s">
+      <c r="B16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
+      <c r="B19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="A23" s="31">
+        <v>2</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
-        <v>1.6</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
+      <c r="A24" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="32"/>
+      <c r="A25" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="32"/>
+      <c r="A26" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="36" t="s">
+        <v>103</v>
+      </c>
       <c r="M26" s="33"/>
     </row>
     <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="B21:M21"/>
+  <mergeCells count="56">
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B18:M18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:K19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:K11"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:K8"/>
@@ -2168,6 +2271,21 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2177,11 +2295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -2195,521 +2313,573 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="2"/>
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
-        <v>1</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="81"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="B10" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F10" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="51" t="s">
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="86" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
-        <v>1.2</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55" t="s">
+      <c r="F11" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>3</v>
+      </c>
+      <c r="B13" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="81"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="58"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59">
-        <v>2</v>
-      </c>
-      <c r="B9" s="60" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
-        <v>2.1</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="F14" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F15" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="69"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B11" s="71" t="s">
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="76"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="76"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59">
-        <v>3</v>
-      </c>
-      <c r="B13" s="60" t="s">
+      <c r="F16" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
-        <v>3.1</v>
-      </c>
-      <c r="B14" s="64" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>4</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="81"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>5</v>
+      </c>
+      <c r="B19" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="77" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="81"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B20" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="69"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>3.2</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32" t="s">
+      <c r="F20" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
-        <v>3.3</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="78" t="s">
+      <c r="F21" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59">
-        <v>4</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-    </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="69"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59">
-        <v>5</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="79" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="69"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>5.2</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="F23" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>5.3</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>5.4</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
